--- a/Pranaav-UIT2201-ex-06/Empirical_analysis_merge_sort.xlsx
+++ b/Pranaav-UIT2201-ex-06/Empirical_analysis_merge_sort.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
   <si>
     <t>Recordings</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>Sorting Algorithm</t>
+  </si>
+  <si>
+    <t>Quick Sort</t>
+  </si>
+  <si>
+    <t>n = 1000</t>
+  </si>
+  <si>
+    <t>n = 10000</t>
   </si>
 </sst>
 </file>
@@ -253,24 +262,12 @@
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -280,34 +277,46 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -604,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -618,394 +627,863 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="20.399999999999999">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="20.399999999999999">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="3" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
     </row>
     <row r="7" spans="1:11" ht="14.4" customHeight="1">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="14.4" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:11" ht="17.399999999999999">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="16" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="14" t="s">
+      <c r="E9" s="12"/>
+      <c r="F9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="5" t="s">
+      <c r="G9" s="14"/>
+      <c r="H9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="8" t="s">
+      <c r="I9" s="15"/>
+      <c r="J9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="8"/>
+      <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:11" ht="17.399999999999999">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="16" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="14" t="s">
+      <c r="E10" s="12"/>
+      <c r="F10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="5" t="s">
+      <c r="G10" s="14"/>
+      <c r="H10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="8" t="s">
+      <c r="I10" s="15"/>
+      <c r="J10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="8"/>
+      <c r="K10" s="16"/>
     </row>
     <row r="11" spans="1:11" ht="17.399999999999999">
-      <c r="A11" s="6">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="3">
         <v>24</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="11">
         <f>B11/A11</f>
         <v>2.4</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="14">
-        <f>D11/A11</f>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13">
+        <f t="shared" ref="F11:F16" si="0">D11/A11</f>
         <v>0.24</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="5">
-        <f>F11/A11</f>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15">
+        <f t="shared" ref="H11:H16" si="1">F11/A11</f>
         <v>2.4E-2</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="8">
-        <f>B11/(LOG(A11,2)*A11)</f>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16">
+        <f t="shared" ref="J11:J16" si="2">B11/(LOG(A11,2)*A11)</f>
         <v>0.72247198959355485</v>
       </c>
-      <c r="K11" s="8"/>
+      <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:11" ht="17.399999999999999">
-      <c r="A12" s="6">
+      <c r="A12" s="3">
         <v>100</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="3">
         <v>540</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="16">
-        <f t="shared" ref="D12:D15" si="0">B12/A12</f>
+      <c r="D12" s="11">
+        <f t="shared" ref="D12:D15" si="3">B12/A12</f>
         <v>5.4</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="14">
-        <f>D12/A12</f>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13">
+        <f t="shared" si="0"/>
         <v>5.4000000000000006E-2</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="5">
-        <f>F12/A12</f>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15">
+        <f t="shared" si="1"/>
         <v>5.4000000000000012E-4</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="8">
-        <f>B12/(LOG(A12,2)*A12)</f>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16">
+        <f t="shared" si="2"/>
         <v>0.81278098829274914</v>
       </c>
-      <c r="K12" s="8"/>
+      <c r="K12" s="16"/>
     </row>
     <row r="13" spans="1:11" ht="17.399999999999999">
-      <c r="A13" s="6">
+      <c r="A13" s="3">
         <v>1000</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="3">
         <v>8718</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="11">
+        <f t="shared" si="3"/>
+        <v>8.718</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13">
         <f t="shared" si="0"/>
-        <v>8.718</v>
-      </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="14">
-        <f>D13/A13</f>
         <v>8.7180000000000001E-3</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="5">
-        <f>F13/A13</f>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15">
+        <f t="shared" si="1"/>
         <v>8.7180000000000002E-6</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="8">
-        <f>B13/(LOG(A13,2)*A13)</f>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16">
+        <f t="shared" si="2"/>
         <v>0.87479316739952928</v>
       </c>
-      <c r="K13" s="8"/>
+      <c r="K13" s="16"/>
     </row>
     <row r="14" spans="1:11" ht="17.399999999999999">
-      <c r="A14" s="6">
+      <c r="A14" s="3">
         <v>10000</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="3">
         <v>120509</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="11">
+        <f t="shared" si="3"/>
+        <v>12.0509</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13">
         <f t="shared" si="0"/>
-        <v>12.0509</v>
-      </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="14">
-        <f>D14/A14</f>
         <v>1.20509E-3</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="5">
-        <f>F14/A14</f>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15">
+        <f t="shared" si="1"/>
         <v>1.2050900000000001E-7</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="8">
-        <f>B14/(LOG(A14,2)*A14)</f>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16">
+        <f t="shared" si="2"/>
         <v>0.9069205936867677</v>
       </c>
-      <c r="K14" s="8"/>
+      <c r="K14" s="16"/>
     </row>
     <row r="15" spans="1:11" ht="17.399999999999999">
-      <c r="A15" s="9">
+      <c r="A15" s="5">
         <v>20000</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="5">
         <v>260910</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="11">
+        <f t="shared" si="3"/>
+        <v>13.045500000000001</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13">
         <f t="shared" si="0"/>
-        <v>13.045500000000001</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="14">
-        <f>D15/A15</f>
         <v>6.5227500000000001E-4</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="5">
-        <f>F15/A15</f>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15">
+        <f t="shared" si="1"/>
         <v>3.2613750000000003E-8</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="8">
-        <f>B15/(LOG(A15,2)*A15)</f>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16">
+        <f t="shared" si="2"/>
         <v>0.91305729380950618</v>
       </c>
-      <c r="K15" s="8"/>
+      <c r="K15" s="16"/>
     </row>
     <row r="16" spans="1:11" ht="17.399999999999999">
-      <c r="A16" s="9">
+      <c r="A16" s="5">
         <v>50000</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="10">
         <v>718196</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="16">
-        <f t="shared" ref="D16" si="1">B16/A16</f>
+      <c r="D16" s="11">
+        <f t="shared" ref="D16" si="4">B16/A16</f>
         <v>14.36392</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="14">
-        <f>D16/A16</f>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13">
+        <f t="shared" si="0"/>
         <v>2.872784E-4</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="5">
-        <f>F16/A16</f>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15">
+        <f t="shared" si="1"/>
         <v>5.7455680000000002E-9</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="8">
-        <f>B16/(LOG(A16,2)*A16)</f>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16">
+        <f t="shared" si="2"/>
         <v>0.92019544098553263</v>
       </c>
-      <c r="K16" s="8"/>
-    </row>
-    <row r="18" spans="1:5" ht="17.399999999999999">
-      <c r="A18" s="10" t="s">
+      <c r="K16" s="16"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="17.399999999999999">
+      <c r="A18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="6">
+      <c r="D18" s="4"/>
+      <c r="E18" s="3">
         <v>64608</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17.399999999999999">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:11" ht="17.399999999999999">
+      <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10" t="s">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="6">
+      <c r="D19" s="4"/>
+      <c r="E19" s="3">
         <v>69008</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="17.399999999999999">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:11" ht="17.399999999999999">
+      <c r="A20" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13">
+      <c r="D20" s="8"/>
+      <c r="E20" s="9">
         <v>120403</v>
       </c>
     </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" ht="20.399999999999999">
+      <c r="A26" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" ht="20.399999999999999">
+      <c r="A28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+    </row>
+    <row r="31" spans="1:11" ht="17.399999999999999">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" s="16"/>
+    </row>
+    <row r="32" spans="1:11" ht="17.399999999999999">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="16"/>
+    </row>
+    <row r="33" spans="1:11" ht="17.399999999999999">
+      <c r="A33" s="3">
+        <v>10</v>
+      </c>
+      <c r="B33" s="3">
+        <v>20</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="11">
+        <f>B33/A33</f>
+        <v>2</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="13">
+        <f t="shared" ref="F33:F38" si="5">D33/A33</f>
+        <v>0.2</v>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="H33" s="15">
+        <f t="shared" ref="H33:H38" si="6">F33/A33</f>
+        <v>0.02</v>
+      </c>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16">
+        <f t="shared" ref="J33:J38" si="7">B33/(LOG(A33,2)*A33)</f>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="K33" s="16"/>
+    </row>
+    <row r="34" spans="1:11" ht="17.399999999999999">
+      <c r="A34" s="3">
+        <v>100</v>
+      </c>
+      <c r="B34" s="3">
+        <v>272</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="11">
+        <f t="shared" ref="D34:D38" si="8">B34/A34</f>
+        <v>2.72</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="13">
+        <f t="shared" si="5"/>
+        <v>2.7200000000000002E-2</v>
+      </c>
+      <c r="G34" s="14"/>
+      <c r="H34" s="15">
+        <f t="shared" si="6"/>
+        <v>2.72E-4</v>
+      </c>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16">
+        <f t="shared" si="7"/>
+        <v>0.40940079410301439</v>
+      </c>
+      <c r="K34" s="16"/>
+    </row>
+    <row r="35" spans="1:11" ht="17.399999999999999">
+      <c r="A35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B35" s="3">
+        <v>3616</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="11">
+        <f t="shared" si="8"/>
+        <v>3.6160000000000001</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="13">
+        <f t="shared" si="5"/>
+        <v>3.6160000000000003E-3</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="H35" s="15">
+        <f t="shared" si="6"/>
+        <v>3.6160000000000002E-6</v>
+      </c>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16">
+        <f t="shared" si="7"/>
+        <v>0.3628414881069853</v>
+      </c>
+      <c r="K35" s="16"/>
+    </row>
+    <row r="36" spans="1:11" ht="17.399999999999999">
+      <c r="A36" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B36" s="3">
+        <v>46950</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="11">
+        <f t="shared" si="8"/>
+        <v>4.6950000000000003</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="13">
+        <f t="shared" si="5"/>
+        <v>4.6950000000000003E-4</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="15">
+        <f t="shared" si="6"/>
+        <v>4.695E-8</v>
+      </c>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16">
+        <f t="shared" si="7"/>
+        <v>0.35333395741059792</v>
+      </c>
+      <c r="K36" s="16"/>
+    </row>
+    <row r="37" spans="1:11" ht="17.399999999999999">
+      <c r="A37" s="5">
+        <v>20000</v>
+      </c>
+      <c r="B37" s="5">
+        <v>101227</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="11">
+        <f t="shared" si="8"/>
+        <v>5.06135</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="13">
+        <f t="shared" si="5"/>
+        <v>2.530675E-4</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="15">
+        <f t="shared" si="6"/>
+        <v>1.2653375E-8</v>
+      </c>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16">
+        <f t="shared" si="7"/>
+        <v>0.35424495297403275</v>
+      </c>
+      <c r="K37" s="16"/>
+    </row>
+    <row r="38" spans="1:11" ht="17.399999999999999">
+      <c r="A38" s="5">
+        <v>50000</v>
+      </c>
+      <c r="B38" s="10">
+        <v>281644</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="11">
+        <f t="shared" si="8"/>
+        <v>5.6328800000000001</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="13">
+        <f t="shared" si="5"/>
+        <v>1.126576E-4</v>
+      </c>
+      <c r="G38" s="14"/>
+      <c r="H38" s="15">
+        <f t="shared" si="6"/>
+        <v>2.253152E-9</v>
+      </c>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16">
+        <f t="shared" si="7"/>
+        <v>0.36085904792136037</v>
+      </c>
+      <c r="K38" s="16"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="17.399999999999999">
+      <c r="A41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="3">
+        <v>3638</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="17.399999999999999">
+      <c r="A42" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="3">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="17.399999999999999">
+      <c r="A43" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="9">
+        <v>1999</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="80">
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="A23:K24"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:K28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:K30"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:K8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
@@ -1014,38 +1492,6 @@
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="J16:K16"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
